--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -272,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,6 +334,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,9 +641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +666,7 @@
       </c>
       <c r="F1" s="3">
         <f>F40</f>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,8 +937,8 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,8 +954,8 @@
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,8 +971,8 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,8 +988,8 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,8 +1005,8 @@
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,8 +1022,8 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,8 +1039,8 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,8 +1056,8 @@
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,9 +1316,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40">
+      <c r="F40" s="4">
         <f>SUM(F2:F39)</f>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -325,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,8 +333,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,17 +655,21 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="4" max="6" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -664,16 +681,16 @@
       <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="6">
         <f>F40</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>23252</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -682,7 +699,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -690,7 +707,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1696</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -699,7 +716,7 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -707,7 +724,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -716,7 +733,7 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -724,7 +741,7 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -733,7 +750,7 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -741,7 +758,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -750,7 +767,7 @@
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -758,7 +775,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -767,7 +784,7 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -775,7 +792,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -784,7 +801,7 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -792,7 +809,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -801,7 +818,7 @@
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -809,7 +826,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -818,7 +835,7 @@
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -826,7 +843,7 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -835,7 +852,7 @@
       <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -843,7 +860,7 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -852,7 +869,7 @@
       <c r="E12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -860,7 +877,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -869,7 +886,7 @@
       <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -877,7 +894,7 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -886,7 +903,7 @@
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -894,7 +911,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -903,7 +920,7 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -911,7 +928,7 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -920,7 +937,7 @@
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -928,7 +945,7 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -937,7 +954,7 @@
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -945,7 +962,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -954,7 +971,7 @@
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -962,7 +979,7 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -971,7 +988,7 @@
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -979,7 +996,7 @@
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -988,7 +1005,7 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -996,7 +1013,7 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1005,7 +1022,7 @@
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1013,7 +1030,7 @@
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1022,7 +1039,7 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1030,7 +1047,7 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1039,7 +1056,7 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1047,7 +1064,7 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1056,7 +1073,7 @@
       <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1064,7 +1081,7 @@
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1073,15 +1090,15 @@
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>1</v>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1090,7 +1107,7 @@
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1115,7 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1107,7 +1124,7 @@
       <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1115,7 +1132,7 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1124,7 +1141,7 @@
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1132,7 +1149,7 @@
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1141,7 +1158,7 @@
       <c r="E29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1149,7 +1166,7 @@
       <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1158,7 +1175,7 @@
       <c r="E30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1166,7 +1183,7 @@
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1175,7 +1192,7 @@
       <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1183,7 +1200,7 @@
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1192,7 +1209,7 @@
       <c r="E32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1200,7 +1217,7 @@
       <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1209,7 +1226,7 @@
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1217,7 +1234,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1226,7 +1243,7 @@
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1234,7 +1251,7 @@
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1243,7 +1260,7 @@
       <c r="E35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1268,7 @@
       <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1260,7 +1277,7 @@
       <c r="E36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1285,7 @@
       <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1277,7 +1294,7 @@
       <c r="E37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1302,7 @@
       <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>2746</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1294,7 +1311,7 @@
       <c r="E38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1302,23 +1319,23 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39">
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="4">
+      <c r="F40" s="7">
         <f>SUM(F2:F39)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -655,8 +655,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="F1" s="6">
         <f>F40</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,8 +1107,8 @@
       <c r="E26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" s="7">
         <f>SUM(F2:F39)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -655,8 +655,8 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="F1" s="6">
         <f>F40</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,8 +1124,8 @@
       <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" s="7">
         <f>SUM(F2:F39)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>GRUPO</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -652,17 +655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="5"/>
     <col min="4" max="6" width="9.140625" style="3"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -683,7 +687,7 @@
       </c>
       <c r="F1" s="6">
         <f>F40</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -958,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -975,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -992,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1093,8 +1097,11 @@
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1110,8 +1117,11 @@
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1127,8 +1137,11 @@
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1141,11 +1154,14 @@
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1158,11 +1174,14 @@
       <c r="E29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1175,11 +1194,14 @@
       <c r="E30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1192,11 +1214,14 @@
       <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1209,11 +1234,14 @@
       <c r="E32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1229,8 +1257,11 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1246,8 +1277,11 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1263,8 +1297,11 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1280,8 +1317,11 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1297,8 +1337,11 @@
       <c r="F37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1314,8 +1357,14 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>159</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1331,11 +1380,14 @@
       <c r="F39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F40" s="7">
         <f>SUM(F2:F39)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel/monica.xlsx
+++ b/excel/monica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="80">
   <si>
     <t>AGUILAS</t>
   </si>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -328,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +356,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +704,7 @@
       </c>
       <c r="F1" s="6">
         <f>F40</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,8 +1271,8 @@
       <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -1274,8 +1291,8 @@
       <c r="E34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -1294,8 +1311,8 @@
       <c r="E35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1314,8 +1331,8 @@
       <c r="E36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G36">
         <v>14</v>
@@ -1334,30 +1351,31 @@
       <c r="E37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
+      <c r="F37" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G37">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="9">
         <v>2746</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="C38" s="8"/>
+      <c r="D38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
         <v>159</v>
       </c>
       <c r="H38">
@@ -1377,8 +1395,8 @@
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
+      <c r="F39" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1387,7 +1405,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F40" s="7">
         <f>SUM(F2:F39)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
